--- a/dados/template/template.xlsx
+++ b/dados/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAF\Magalhaes\credcom\dados\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF2DBF5-010F-49D9-99D6-97A7784E3ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D55A5EC-545E-49C8-8269-A55551DAE700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0011A6BC-C6B0-47D2-89C0-6EDCE09304AF}"/>
   </bookViews>
@@ -72,14 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,14 +123,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,59 +167,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -713,7 +693,7 @@
   <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,14 +714,14 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
@@ -781,34 +761,33 @@
       <c r="C10"/>
     </row>
     <row r="11" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
